--- a/municipality homelessness.xlsx
+++ b/municipality homelessness.xlsx
@@ -30,9 +30,6 @@
     <t>Municipality</t>
   </si>
   <si>
-    <t>population</t>
-  </si>
-  <si>
     <t xml:space="preserve">Audubon borough  </t>
   </si>
   <si>
@@ -139,6 +136,9 @@
   </si>
   <si>
     <t>Woodlynne borough</t>
+  </si>
+  <si>
+    <t>Homelessness</t>
   </si>
 </sst>
 </file>
@@ -486,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,12 +500,12 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -521,7 +521,7 @@
     </row>
     <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -529,7 +529,7 @@
     </row>
     <row r="5" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -537,7 +537,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -545,7 +545,7 @@
     </row>
     <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -553,7 +553,7 @@
     </row>
     <row r="8" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>420</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -577,7 +577,7 @@
     </row>
     <row r="11" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -585,7 +585,7 @@
     </row>
     <row r="12" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -593,7 +593,7 @@
     </row>
     <row r="13" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -601,7 +601,7 @@
     </row>
     <row r="14" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -609,7 +609,7 @@
     </row>
     <row r="15" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>41</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="16" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -625,7 +625,7 @@
     </row>
     <row r="17" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -633,7 +633,7 @@
     </row>
     <row r="18" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -641,7 +641,7 @@
     </row>
     <row r="19" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="20" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -657,7 +657,7 @@
     </row>
     <row r="21" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -665,7 +665,7 @@
     </row>
     <row r="22" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -673,7 +673,7 @@
     </row>
     <row r="23" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>8</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="24" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -689,7 +689,7 @@
     </row>
     <row r="25" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -697,7 +697,7 @@
     </row>
     <row r="26" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -705,7 +705,7 @@
     </row>
     <row r="27" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -713,7 +713,7 @@
     </row>
     <row r="28" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -721,7 +721,7 @@
     </row>
     <row r="29" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -729,7 +729,7 @@
     </row>
     <row r="30" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -737,7 +737,7 @@
     </row>
     <row r="31" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -745,7 +745,7 @@
     </row>
     <row r="32" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -753,7 +753,7 @@
     </row>
     <row r="33" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -761,7 +761,7 @@
     </row>
     <row r="34" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -769,7 +769,7 @@
     </row>
     <row r="35" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="36" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>67</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="37" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37">
         <v>0</v>
